--- a/DSA/Practice/test1.xlsx
+++ b/DSA/Practice/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/anmole_dewan_spglobal_com/Documents/Documents/GitHub/Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_FFC65FC06F11ADCA4B508F7C83EEAC604A1EEE1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BC3AA3E-FD63-46D3-A147-C40A02688B81}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_FFC65FC06F11ADCA4B508F7C83EEAC604A1EEE1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAD07B10-33B0-4B31-B63A-07B04F2FA220}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Query 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -595,12 +596,14 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1430,4 +1433,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35408A8F-BE1C-4728-A81B-133C3E67B153}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DSA/Practice/test1.xlsx
+++ b/DSA/Practice/test1.xlsx
@@ -5,55 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/anmole_dewan_spglobal_com/Documents/Documents/GitHub/Data-Science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/anmole_dewan_spglobal_com/Documents/Documents/GitHub/Data-Science/DSA/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_FFC65FC06F11ADCA4B508F7C83EEAC604A1EEE1B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAD07B10-33B0-4B31-B63A-07B04F2FA220}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_FFC65FC0CD516BE10C48BB505166927E479AE3CB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BAA3A64-CB30-49B8-9C61-72B2C984CF76}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Query 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="IQ_CH">110000</definedName>
-    <definedName name="IQ_CQ">5000</definedName>
-    <definedName name="IQ_CY">10000</definedName>
-    <definedName name="IQ_DAILY">500000</definedName>
-    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
-    <definedName name="IQ_FH">100000</definedName>
-    <definedName name="IQ_FQ">500</definedName>
-    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
-    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
-    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
-    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
-    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
-    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
-    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
-    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
-    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
-    <definedName name="IQ_FY">1000</definedName>
-    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
-    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
-    <definedName name="IQ_LTM">2000</definedName>
-    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
-    <definedName name="IQ_MONTH">15000</definedName>
-    <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44266.3118518519</definedName>
-    <definedName name="IQ_NTM">6000</definedName>
-    <definedName name="IQ_QTD" hidden="1">750000</definedName>
-    <definedName name="IQ_TODAY" hidden="1">0</definedName>
-    <definedName name="IQ_WEEK">50000</definedName>
-    <definedName name="IQ_YTD">3000</definedName>
-    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
   <si>
     <t>Table</t>
   </si>
@@ -142,6 +110,9 @@
     <t>2015-05-06</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>2020-01-10</t>
   </si>
   <si>
@@ -188,6 +159,81 @@
   </si>
   <si>
     <t>Comprel_IMPH</t>
+  </si>
+  <si>
+    <t>KeyMINameSpace</t>
+  </si>
+  <si>
+    <t>KeyIMPHRelationshipDerived</t>
+  </si>
+  <si>
+    <t>InstnParentAsOfAnalystEntered</t>
+  </si>
+  <si>
+    <t>KeyInstnMultipleParents</t>
+  </si>
+  <si>
+    <t>InstnParentGeneralPartner</t>
+  </si>
+  <si>
+    <t>PercentOwnedCommon</t>
+  </si>
+  <si>
+    <t>PercentOwnedPreferred</t>
+  </si>
+  <si>
+    <t>InstnParentInstitutional</t>
+  </si>
+  <si>
+    <t>CIQParentID</t>
+  </si>
+  <si>
+    <t>CIQChildID</t>
+  </si>
+  <si>
+    <t>WinnerFlag</t>
+  </si>
+  <si>
+    <t>ultimateParentId</t>
+  </si>
+  <si>
+    <t>Hierarchy_chain</t>
+  </si>
+  <si>
+    <t>InstnParentEndedAsOfAnalystEnt</t>
+  </si>
+  <si>
+    <t>ImpLatest</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Query 4</t>
+  </si>
+  <si>
+    <t>KI and KP only</t>
+  </si>
+  <si>
+    <t>Query 5</t>
+  </si>
+  <si>
+    <t>KI only</t>
+  </si>
+  <si>
+    <t>Query 1 and 2 and 3</t>
+  </si>
+  <si>
+    <t>Companyrelid only</t>
+  </si>
+  <si>
+    <t>KI and KP and companyRelID</t>
   </si>
 </sst>
 </file>
@@ -214,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -249,12 +301,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,18 +646,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="B6" sqref="B6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -703,17 +755,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>44277.323551539354</v>
+        <v>44348.14315304398</v>
       </c>
       <c r="I2">
         <v>4604537</v>
@@ -721,6 +773,9 @@
       <c r="J2">
         <v>4044305</v>
       </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
       <c r="L2">
         <v>4313787</v>
       </c>
@@ -740,13 +795,19 @@
         <v>42130</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" t="b">
         <v>1</v>
@@ -787,25 +848,25 @@
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>21</v>
@@ -814,16 +875,16 @@
         <v>22</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -831,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -839,6 +900,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6">
         <v>4604537</v>
       </c>
@@ -863,6 +927,9 @@
       <c r="M6">
         <v>2105071435</v>
       </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
       <c r="O6">
         <v>1</v>
       </c>
@@ -874,6 +941,12 @@
       </c>
       <c r="R6">
         <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -881,16 +954,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
       <c r="F7">
         <v>4604537</v>
@@ -898,8 +971,11 @@
       <c r="G7">
         <v>4044305</v>
       </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -908,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>44277.331025891202</v>
+        <v>44348.147357951391</v>
       </c>
       <c r="M7">
         <v>2105071555</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -927,6 +1003,12 @@
       </c>
       <c r="R7">
         <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -934,16 +1016,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8">
         <v>4604537</v>
@@ -955,7 +1037,7 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -964,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>44277.331025891202</v>
+        <v>44348.147357951391</v>
       </c>
       <c r="M8">
         <v>555606</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -986,6 +1068,9 @@
       </c>
       <c r="S8">
         <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1008,25 +1093,25 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -1035,16 +1120,16 @@
         <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1052,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1060,6 +1145,9 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
       <c r="F12">
         <v>4604537</v>
       </c>
@@ -1084,6 +1172,9 @@
       <c r="M12">
         <v>2105071435</v>
       </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
       <c r="O12">
         <v>1</v>
       </c>
@@ -1095,6 +1186,12 @@
       </c>
       <c r="R12">
         <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1102,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
       <c r="F13">
         <v>4604537</v>
@@ -1119,8 +1216,11 @@
       <c r="G13">
         <v>4044305</v>
       </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1129,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>44277.331025891202</v>
+        <v>44348.146701655103</v>
       </c>
       <c r="M13">
         <v>2105071555</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1148,6 +1248,12 @@
       </c>
       <c r="R13">
         <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -1155,16 +1261,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
       </c>
       <c r="F14">
         <v>4604537</v>
@@ -1176,7 +1282,7 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1185,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>44277.331025891202</v>
+        <v>44348.146701655103</v>
       </c>
       <c r="M14">
         <v>555606</v>
       </c>
       <c r="N14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1208,19 +1314,22 @@
       <c r="S14">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -1229,57 +1338,99 @@
         <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="W17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
       </c>
       <c r="F18">
         <v>4604537</v>
@@ -1288,146 +1439,82 @@
         <v>4044305</v>
       </c>
       <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18">
+        <v>4604537</v>
+      </c>
+      <c r="I18">
+        <v>4044305</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="2">
-        <v>44277.150368206021</v>
-      </c>
       <c r="M18">
-        <v>2105071435</v>
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>44348.146701655103</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
+        <v>2105071555</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>4604537</v>
-      </c>
-      <c r="G19">
-        <v>4044305</v>
-      </c>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>44277.331025891202</v>
-      </c>
-      <c r="M19">
-        <v>2105071555</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>9</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>4604537</v>
-      </c>
-      <c r="G20">
-        <v>4044305</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
         <v>42</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>44277.331025891202</v>
-      </c>
-      <c r="M20">
-        <v>555606</v>
-      </c>
-      <c r="N20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
+      <c r="AF18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1436,13 +1523,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35408A8F-BE1C-4728-A81B-133C3E67B153}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB89F343-20EF-4596-AE73-ADBA9EC5A009}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{5DAC7089-3D0A-4BDF-ABA0-6ECA20374CBC}">
+      <formula1>$Q$1:$Q$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{2D53B52F-D6BB-477C-AA52-2ADBCD62FABC}">
+      <formula1>$S$1:$S$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>